--- a/Report/Instance.xlsx
+++ b/Report/Instance.xlsx
@@ -296,6 +296,66 @@
           <c:dLbls>
             <c:dLbl>
               <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.9139610389610288E-2"/>
+                  <c:y val="-5.4814814814814934E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{64EFBB29-BC40-43A1-92D5-684389189997}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" sz="1800"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="2000" baseline="0"/>
+                      <a:t>,</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{EF7EF9BA-199C-48E8-B7A2-38952AB0A930}" type="VALUE">
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{59577273-3AD6-43D4-9C04-A12723363276}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -305,7 +365,7 @@
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
+                  <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
@@ -322,7 +382,7 @@
                   <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
-              <c:dLblPos val="outEnd"/>
+              <c:dLblPos val="bestFit"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="1"/>
@@ -330,6 +390,16 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.29053701383917918"/>
+                      <c:h val="0.11718121901428986"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000001-12AD-4B48-B579-9E33524C8171}"/>
                 </c:ext>
@@ -337,6 +407,60 @@
             </c:dLbl>
             <c:dLbl>
               <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                    <a:noAutofit/>
+                  </a:bodyPr>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="1000" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:fld id="{7F35A1BA-8F2C-463D-A9E2-09C15C083390}" type="CATEGORYNAME">
+                      <a:rPr lang="en-US" sz="1800"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[CATEGORY NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>,</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t> </a:t>
+                    </a:r>
+                    <a:fld id="{A3E098E9-5A98-41F8-916D-17F39CE73CFD}" type="VALUE">
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{AF191002-DFDA-4610-8857-22AC5A1ED3B9}" type="PERCENTAGE">
+                      <a:rPr lang="en-US" sz="1600" baseline="0"/>
+                      <a:pPr>
+                        <a:defRPr/>
+                      </a:pPr>
+                      <a:t>[PERCENTAGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" sz="1600" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:spPr>
                 <a:noFill/>
                 <a:ln>
@@ -346,7 +470,7 @@
               </c:spPr>
               <c:txPr>
                 <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                  <a:spAutoFit/>
+                  <a:noAutofit/>
                 </a:bodyPr>
                 <a:lstStyle/>
                 <a:p>
@@ -371,11 +495,28 @@
               <c:showPercent val="1"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout>
+                    <c:manualLayout>
+                      <c:w val="0.27454675409891938"/>
+                      <c:h val="0.12801493146689996"/>
+                    </c:manualLayout>
+                  </c15:layout>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                   <c16:uniqueId val="{00000002-12AD-4B48-B579-9E33524C8171}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
             <c:dLblPos val="outEnd"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="1"/>
@@ -1064,10 +1205,10 @@
       <xdr:rowOff>148590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1394,7 +1535,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
